--- a/2D/Dynamic/Dynamic数据说明.xlsx
+++ b/2D/Dynamic/Dynamic数据说明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\1.研究生\0.科研\SLAM\ICRA 2023\Datasets\2D\Dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\1.研究生\0.科研\SLAM\ICRA 2023\Asymptotic-Efficient-Pose-Estimation-via-Range-Measurements\2D\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91233001-E1AA-4C7F-B3E9-877934769BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801F2F3-A54C-4655-8914-62904E9C982E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4275" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1817" yWindow="1817" windowWidth="16457" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Z</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sensor刚体坐标系下坐标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -88,6 +84,10 @@
   </si>
   <si>
     <t>anchor动捕坐标系下坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -228,11 +228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -516,14 +516,14 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -531,182 +531,182 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="10">
+        <v>-6.8923999999999999E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-0.142294</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
-        <v>-0.142294</v>
-      </c>
-      <c r="G4" s="6">
-        <v>-6.8923999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="10">
+        <v>-7.5036000000000005E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.140209</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.140209</v>
-      </c>
-      <c r="G5" s="6">
-        <v>-7.5036000000000005E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="10">
+        <v>0.20341600000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.14507600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
-        <v>0.14507600000000001</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.20341600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="10">
+        <v>-3.42</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.0049999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="G8" s="6">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3.0110000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="7">
-        <v>3.0110000000000001</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="10">
+        <v>3.6059999999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.9790000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
-        <v>2.9790000000000001</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3.6059999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="10">
+        <v>3.601</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="7">
-        <v>-1E-3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3.601</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="10">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-3.0089999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="7">
-        <v>-3.0089999999999999</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3.5670000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="10">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-2.9649999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7">
-        <v>-2.9649999999999999</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="10">
+        <v>-3.4670000000000001</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-2.9590000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7">
-        <v>-2.9590000000000001</v>
-      </c>
-      <c r="G14" s="6">
-        <v>-3.4670000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
+        <v>-3.4860000000000002</v>
+      </c>
+      <c r="G15" s="9">
         <v>-0.01</v>
-      </c>
-      <c r="G15" s="11">
-        <v>-3.4860000000000002</v>
       </c>
     </row>
   </sheetData>
